--- a/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Q_old.xlsx
+++ b/Java/Test OptRecursive/OptRecursive_Testbench/Excel_Files/outputOpt/Q_old.xlsx
@@ -63,122 +63,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>-0.3904193377711715</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.21551954328717918</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.21031283451925956</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.1691623843813986E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.0265834148268374E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.6663786557019324E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.64034417328855E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.3872504842388764E-5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.409703819861848E-5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.6153444826775473E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.475760609075373E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.760693759893704E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.316348906350155E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-8.251386252939855E-4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0018088178278981573</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0022706230025228125</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.002163263281396898</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0017833627857837197</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.0021816837349501474</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0020087246763385736</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.001431909108609787</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0021773201603531144</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.002122465555149222</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.0010978705334350259</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
